--- a/data/240623_growth_phenotyping/at/species.xlsx
+++ b/data/240623_growth_phenotyping/at/species.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">A</t>
   </si>
   <si>
-    <t xml:space="preserve">Agrobacterium Tumefaciens</t>
+    <t xml:space="preserve">Agrobacterium tumefaciens</t>
   </si>
   <si>
     <t xml:space="preserve">B</t>
@@ -255,8 +255,8 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9:M9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K9" activeCellId="0" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
